--- a/team_results/pelicans/xlsx_pelicans_1_played_games_data.xlsx
+++ b/team_results/pelicans/xlsx_pelicans_1_played_games_data.xlsx
@@ -540,7 +540,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>23</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>29</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>223</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" t="n">
         <v>227</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" t="n">
         <v>232</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
         <v>384</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
         <v>394</v>

--- a/team_results/pelicans/xlsx_pelicans_1_played_games_data.xlsx
+++ b/team_results/pelicans/xlsx_pelicans_1_played_games_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="n">
         <v>205</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="n">
         <v>207</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>227</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>232</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="n">
         <v>335</v>
@@ -1866,7 +1866,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" t="n">
         <v>337</v>
@@ -2097,6 +2097,74 @@
         <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
+        <is>
+          <t>pelicans</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>402</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>lukko</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>pelicans</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>lukko</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>410</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2022-03-04</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>pelicans</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>saipa</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>pelicans</t>
         </is>
